--- a/StructureDefinition-be-patient.xlsx
+++ b/StructureDefinition-be-patient.xlsx
@@ -903,7 +903,7 @@
     <t>Patient.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/beaddress}
+    <t xml:space="preserve">Address {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-address}
 </t>
   </si>
   <si>
@@ -1265,7 +1265,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/beorganization|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/bepractitioner|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/bepractitionerrole)
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-organization|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitionerrole)
 </t>
   </si>
   <si>
@@ -1296,7 +1296,7 @@
     <t>Patient.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/beorganization)
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-organization)
 </t>
   </si>
   <si>

--- a/StructureDefinition-be-patient.xlsx
+++ b/StructureDefinition-be-patient.xlsx
@@ -160,7 +160,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ele-1:All FHIR elements must have a @value {hasValue()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>

--- a/StructureDefinition-be-patient.xlsx
+++ b/StructureDefinition-be-patient.xlsx
@@ -160,7 +160,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ele-1:All FHIR elements must have a @value {hasValue()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>

--- a/StructureDefinition-be-patient.xlsx
+++ b/StructureDefinition-be-patient.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$70</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2704" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2528" uniqueCount="423">
   <si>
     <t>Path</t>
   </si>
@@ -340,6 +340,89 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>Patient.extension.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Patient.extension.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>Patient.extension.extension.id</t>
+  </si>
+  <si>
+    <t>Patient.extension.extension.extension</t>
+  </si>
+  <si>
+    <t>Patient.extension.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Patient.extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t>base64Binary
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Patient.extension.url</t>
+  </si>
+  <si>
+    <t>Patient.extension.value[x]</t>
+  </si>
+  <si>
     <t>nationality</t>
   </si>
   <si>
@@ -357,297 +440,202 @@
 </t>
   </si>
   <si>
-    <t>Patient.extension.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Patient.extension.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>Patient.extension.extension.id</t>
-  </si>
-  <si>
-    <t>Patient.extension.extension.extension</t>
-  </si>
-  <si>
-    <t>Patient.extension.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Patient.extension.extension.value[x]</t>
+    <t>birthPlace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {patient-birthPlace}
+</t>
+  </si>
+  <si>
+    <t>Place of Birth for patient</t>
+  </si>
+  <si>
+    <t>The registered place of birth of the patient. A sytem may use the address.text if they don't store the birthPlace address in discrete elements.</t>
+  </si>
+  <si>
+    <t>Patient.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Patient.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>An identifier for this patient</t>
+  </si>
+  <si>
+    <t>An identifier for this patient.</t>
+  </si>
+  <si>
+    <t>Patients are almost always assigned specific numerical identifiers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>Slice based on the identifier.code pattern</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>SSIN</t>
+  </si>
+  <si>
+    <t>Patient.identifier.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>period</t>
-  </si>
-  <si>
-    <t>Nationality Period</t>
-  </si>
-  <si>
-    <t>Period when nationality was effective.</t>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Patient.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/NamingSystem/ssin</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>Patient.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>Patient.identifier.period</t>
   </si>
   <si>
     <t xml:space="preserve">Period
 </t>
-  </si>
-  <si>
-    <t>Patient.extension.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/patient-nationality</t>
-  </si>
-  <si>
-    <t>Patient.extension.value[x]</t>
-  </si>
-  <si>
-    <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
-  </si>
-  <si>
-    <t>birthPlace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {patient-birthPlace}
-</t>
-  </si>
-  <si>
-    <t>Place of Birth for patient</t>
-  </si>
-  <si>
-    <t>The registered place of birth of the patient. A sytem may use the address.text if they don't store the birthPlace address in discrete elements.</t>
-  </si>
-  <si>
-    <t>Patient.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Patient.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>An identifier for this patient</t>
-  </si>
-  <si>
-    <t>An identifier for this patient.</t>
-  </si>
-  <si>
-    <t>Patients are almost always assigned specific numerical identifiers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>Slice based on the identifier.code pattern</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>SSIN</t>
-  </si>
-  <si>
-    <t>Patient.identifier.id</t>
-  </si>
-  <si>
-    <t>Patient.identifier.extension</t>
-  </si>
-  <si>
-    <t>Patient.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Patient.identifier.type</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>Patient.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/NamingSystem/ssin</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>Patient.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>Patient.identifier.period</t>
   </si>
   <si>
     <t>Time period when id is/was valid for use</t>
@@ -1529,7 +1517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN75"/>
+  <dimension ref="A1:AN70"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2608,11 +2596,9 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="B10" t="s" s="2">
         <v>103</v>
       </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>44</v>
       </c>
@@ -2621,7 +2607,7 @@
         <v>42</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>44</v>
@@ -2633,13 +2619,13 @@
         <v>44</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2690,22 +2676,22 @@
         <v>44</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH10" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>44</v>
@@ -2726,14 +2712,14 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>44</v>
@@ -2745,15 +2731,17 @@
         <v>44</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>44</v>
@@ -2790,34 +2778,34 @@
         <v>44</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="AC11" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>44</v>
@@ -2834,11 +2822,13 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="C12" t="s" s="2">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2860,14 +2850,12 @@
         <v>96</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>44</v>
@@ -2904,19 +2892,19 @@
         <v>44</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -2931,7 +2919,7 @@
         <v>102</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>44</v>
@@ -2948,11 +2936,9 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
         <v>44</v>
       </c>
@@ -2973,13 +2959,13 @@
         <v>44</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3030,22 +3016,22 @@
         <v>44</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>44</v>
@@ -3062,18 +3048,18 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>44</v>
@@ -3085,15 +3071,17 @@
         <v>44</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>44</v>
@@ -3130,34 +3118,34 @@
         <v>44</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>44</v>
@@ -3174,7 +3162,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3182,10 +3170,10 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>44</v>
@@ -3197,22 +3185,24 @@
         <v>44</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="R15" t="s" s="2">
         <v>44</v>
@@ -3242,34 +3232,34 @@
         <v>44</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>44</v>
@@ -3294,7 +3284,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>51</v>
@@ -3309,24 +3299,22 @@
         <v>44</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M16" t="s" s="2">
         <v>126</v>
       </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="R16" t="s" s="2">
         <v>44</v>
@@ -3371,7 +3359,7 @@
         <v>127</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>51</v>
@@ -3380,7 +3368,7 @@
         <v>44</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>94</v>
@@ -3423,15 +3411,17 @@
         <v>44</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>44</v>
@@ -3480,10 +3470,10 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>51</v>
@@ -3492,7 +3482,7 @@
         <v>44</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>94</v>
@@ -3512,11 +3502,9 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>44</v>
       </c>
@@ -3525,7 +3513,7 @@
         <v>42</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>44</v>
@@ -3537,13 +3525,13 @@
         <v>44</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3594,22 +3582,22 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>44</v>
@@ -3626,9 +3614,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="C19" t="s" s="2">
         <v>44</v>
       </c>
@@ -3637,7 +3627,7 @@
         <v>42</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>44</v>
@@ -3649,13 +3639,13 @@
         <v>44</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3706,22 +3696,22 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>44</v>
@@ -3738,9 +3728,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>44</v>
       </c>
@@ -3749,7 +3741,7 @@
         <v>42</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>44</v>
@@ -3761,13 +3753,13 @@
         <v>44</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3806,19 +3798,19 @@
         <v>44</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3827,7 +3819,7 @@
         <v>43</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>102</v>
@@ -3850,47 +3842,49 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>44</v>
@@ -3932,19 +3926,19 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>94</v>
@@ -3964,7 +3958,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3972,10 +3966,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>44</v>
@@ -3984,19 +3978,21 @@
         <v>44</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="N22" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>44</v>
       </c>
@@ -4032,25 +4028,25 @@
         <v>44</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>44</v>
@@ -4059,64 +4055,66 @@
         <v>63</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>44</v>
@@ -4158,31 +4156,31 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>44</v>
@@ -4190,7 +4188,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4201,7 +4199,7 @@
         <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>44</v>
@@ -4213,13 +4211,13 @@
         <v>44</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4270,7 +4268,7 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4282,10 +4280,10 @@
         <v>44</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>44</v>
@@ -4302,20 +4300,18 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>44</v>
@@ -4327,15 +4323,17 @@
         <v>44</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>44</v>
@@ -4372,19 +4370,19 @@
         <v>44</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4393,13 +4391,13 @@
         <v>43</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>44</v>
@@ -4416,18 +4414,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>44</v>
@@ -4436,22 +4434,22 @@
         <v>52</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>44</v>
@@ -4476,13 +4474,13 @@
         <v>44</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>44</v>
@@ -4500,31 +4498,31 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>44</v>
@@ -4532,7 +4530,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4543,7 +4541,7 @@
         <v>42</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>44</v>
@@ -4555,17 +4553,19 @@
         <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="N27" t="s" s="2">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>44</v>
@@ -4590,37 +4590,37 @@
         <v>44</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>44</v>
+        <v>175</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>44</v>
@@ -4629,28 +4629,26 @@
         <v>63</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>158</v>
+        <v>44</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>44</v>
       </c>
@@ -4659,10 +4657,10 @@
         <v>42</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>44</v>
@@ -4671,17 +4669,19 @@
         <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="N28" t="s" s="2">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>44</v>
@@ -4691,10 +4691,10 @@
         <v>44</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>44</v>
+        <v>184</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>44</v>
+        <v>185</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>44</v>
@@ -4730,13 +4730,13 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>44</v>
@@ -4745,16 +4745,16 @@
         <v>63</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>158</v>
+        <v>44</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>44</v>
@@ -4762,7 +4762,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4770,7 +4770,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>51</v>
@@ -4782,18 +4782,20 @@
         <v>44</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>44</v>
@@ -4806,7 +4808,7 @@
         <v>44</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>44</v>
@@ -4842,7 +4844,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4854,10 +4856,10 @@
         <v>44</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>112</v>
+        <v>195</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>44</v>
@@ -4866,7 +4868,7 @@
         <v>44</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>44</v>
+        <v>196</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>44</v>
@@ -4874,18 +4876,18 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>44</v>
@@ -4894,20 +4896,18 @@
         <v>44</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>115</v>
+        <v>199</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>44</v>
@@ -4944,34 +4944,34 @@
         <v>44</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>119</v>
+        <v>201</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>44</v>
@@ -4980,7 +4980,7 @@
         <v>44</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>44</v>
+        <v>203</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -4988,7 +4988,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5005,26 +5005,24 @@
         <v>44</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>71</v>
+        <v>205</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>166</v>
+        <v>207</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>44</v>
       </c>
@@ -5048,13 +5046,13 @@
         <v>44</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>171</v>
+        <v>44</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>44</v>
@@ -5072,7 +5070,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -5087,7 +5085,7 @@
         <v>63</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>44</v>
@@ -5096,7 +5094,7 @@
         <v>44</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>44</v>
@@ -5104,7 +5102,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5121,30 +5119,32 @@
         <v>44</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P32" s="2"/>
+      <c r="P32" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="Q32" t="s" s="2">
         <v>44</v>
       </c>
@@ -5164,13 +5164,13 @@
         <v>44</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>181</v>
+        <v>44</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>44</v>
@@ -5188,7 +5188,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5203,24 +5203,24 @@
         <v>63</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>183</v>
+        <v>44</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5231,10 +5231,10 @@
         <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>44</v>
@@ -5243,32 +5243,32 @@
         <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>65</v>
+        <v>222</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>190</v>
+        <v>44</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>44</v>
@@ -5304,13 +5304,13 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>44</v>
@@ -5319,16 +5319,16 @@
         <v>63</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>44</v>
+        <v>228</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>44</v>
@@ -5336,7 +5336,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5344,10 +5344,10 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>44</v>
@@ -5359,18 +5359,20 @@
         <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>53</v>
+        <v>231</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>44</v>
       </c>
@@ -5382,7 +5384,7 @@
         <v>44</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>198</v>
+        <v>44</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>44</v>
@@ -5418,13 +5420,13 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>44</v>
@@ -5433,16 +5435,16 @@
         <v>63</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>44</v>
+        <v>237</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>44</v>
@@ -5450,7 +5452,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5458,7 +5460,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>51</v>
@@ -5473,16 +5475,20 @@
         <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>44</v>
       </c>
@@ -5506,13 +5512,13 @@
         <v>44</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>44</v>
+        <v>244</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>44</v>
+        <v>245</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>44</v>
@@ -5530,7 +5536,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5545,16 +5551,16 @@
         <v>63</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>44</v>
@@ -5562,7 +5568,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5585,18 +5591,20 @@
         <v>52</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>44</v>
       </c>
@@ -5644,7 +5652,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5659,24 +5667,24 @@
         <v>63</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>44</v>
+        <v>256</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>215</v>
+        <v>257</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>44</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5693,32 +5701,26 @@
         <v>44</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>217</v>
+        <v>53</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P37" t="s" s="2">
-        <v>222</v>
-      </c>
+      <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
         <v>44</v>
       </c>
@@ -5762,7 +5764,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>216</v>
+        <v>106</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5774,16 +5776,16 @@
         <v>44</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>223</v>
+        <v>44</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>44</v>
@@ -5792,9 +5794,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>225</v>
+        <v>262</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5808,29 +5810,25 @@
         <v>43</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>226</v>
+        <v>96</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>227</v>
+        <v>97</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>44</v>
       </c>
@@ -5866,19 +5864,17 @@
         <v>44</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AB38" s="2"/>
       <c r="AC38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>225</v>
+        <v>114</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5890,19 +5886,19 @@
         <v>44</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>231</v>
+        <v>44</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>232</v>
+        <v>44</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>233</v>
+        <v>44</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>44</v>
@@ -5910,9 +5906,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="B39" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="C39" t="s" s="2">
         <v>44</v>
       </c>
@@ -5921,7 +5919,7 @@
         <v>42</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>44</v>
@@ -5930,23 +5928,19 @@
         <v>44</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>44</v>
       </c>
@@ -5994,7 +5988,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>234</v>
+        <v>114</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -6003,22 +5997,22 @@
         <v>43</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>240</v>
+        <v>44</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>242</v>
+        <v>44</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>44</v>
@@ -6026,7 +6020,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6034,7 +6028,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>51</v>
@@ -6046,23 +6040,19 @@
         <v>44</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>71</v>
+        <v>250</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>44</v>
       </c>
@@ -6086,13 +6076,13 @@
         <v>44</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>248</v>
+        <v>44</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>249</v>
+        <v>44</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>44</v>
@@ -6110,7 +6100,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6122,19 +6112,19 @@
         <v>44</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>250</v>
+        <v>44</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>251</v>
+        <v>44</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>252</v>
+        <v>44</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>44</v>
@@ -6142,7 +6132,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6159,25 +6149,25 @@
         <v>44</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>44</v>
@@ -6226,7 +6216,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6241,24 +6231,24 @@
         <v>63</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>260</v>
+        <v>107</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>262</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6269,7 +6259,7 @@
         <v>42</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>44</v>
@@ -6281,16 +6271,20 @@
         <v>44</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>53</v>
+        <v>279</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>44</v>
       </c>
@@ -6338,22 +6332,22 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>111</v>
+        <v>278</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>44</v>
+        <v>284</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>44</v>
@@ -6362,7 +6356,7 @@
         <v>44</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>44</v>
+        <v>285</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>44</v>
@@ -6370,7 +6364,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6381,7 +6375,7 @@
         <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>44</v>
@@ -6393,16 +6387,18 @@
         <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>97</v>
+        <v>287</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>98</v>
+        <v>288</v>
       </c>
       <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>44</v>
       </c>
@@ -6426,53 +6422,53 @@
         <v>44</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB43" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>119</v>
+        <v>286</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>44</v>
+        <v>291</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>44</v>
+        <v>292</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>44</v>
+        <v>293</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>44</v>
@@ -6480,11 +6476,9 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
         <v>44</v>
       </c>
@@ -6505,16 +6499,20 @@
         <v>44</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>44</v>
       </c>
@@ -6562,31 +6560,31 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>119</v>
+        <v>294</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="AI44" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AL44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>44</v>
+        <v>300</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>44</v>
@@ -6594,7 +6592,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6605,7 +6603,7 @@
         <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>44</v>
@@ -6617,16 +6615,20 @@
         <v>44</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>254</v>
+        <v>302</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>44</v>
       </c>
@@ -6674,31 +6676,31 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>44</v>
+        <v>307</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>44</v>
+        <v>308</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>44</v>
@@ -6706,7 +6708,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6717,31 +6719,31 @@
         <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>217</v>
+        <v>310</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>44</v>
@@ -6790,31 +6792,31 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>63</v>
+        <v>315</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>281</v>
+        <v>44</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>44</v>
@@ -6822,7 +6824,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6833,7 +6835,7 @@
         <v>42</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>44</v>
@@ -6845,20 +6847,16 @@
         <v>44</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>283</v>
+        <v>53</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>284</v>
+        <v>104</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>44</v>
       </c>
@@ -6906,23 +6904,23 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>282</v>
+        <v>106</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="AI47" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>288</v>
-      </c>
       <c r="AK47" t="s" s="2">
         <v>44</v>
       </c>
@@ -6930,7 +6928,7 @@
         <v>44</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>289</v>
+        <v>44</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>44</v>
@@ -6938,18 +6936,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>44</v>
@@ -6961,18 +6959,18 @@
         <v>44</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>291</v>
+        <v>110</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>44</v>
       </c>
@@ -6996,11 +6994,13 @@
         <v>44</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="X48" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y48" t="s" s="2">
-        <v>294</v>
+        <v>44</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>44</v>
@@ -7018,31 +7018,31 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>290</v>
+        <v>114</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>295</v>
+        <v>107</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>296</v>
+        <v>44</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>297</v>
+        <v>44</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>44</v>
@@ -7050,42 +7050,42 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>44</v>
+        <v>320</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>217</v>
+        <v>96</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>301</v>
+        <v>112</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>302</v>
+        <v>142</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>44</v>
@@ -7134,31 +7134,31 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>303</v>
+        <v>94</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>304</v>
+        <v>44</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>44</v>
@@ -7166,7 +7166,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7189,19 +7189,17 @@
         <v>44</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>306</v>
+        <v>169</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>44</v>
@@ -7226,13 +7224,11 @@
         <v>44</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X50" s="2"/>
       <c r="Y50" t="s" s="2">
-        <v>44</v>
+        <v>328</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>44</v>
@@ -7250,7 +7246,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7265,16 +7261,16 @@
         <v>63</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>311</v>
+        <v>115</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>44</v>
@@ -7282,7 +7278,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7293,7 +7289,7 @@
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>44</v>
@@ -7305,19 +7301,17 @@
         <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>314</v>
+        <v>222</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>44</v>
@@ -7366,31 +7360,31 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>319</v>
+        <v>63</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>320</v>
+        <v>227</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>44</v>
+        <v>334</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>44</v>
@@ -7398,7 +7392,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7409,7 +7403,7 @@
         <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>44</v>
@@ -7421,16 +7415,20 @@
         <v>44</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>53</v>
+        <v>231</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>109</v>
+        <v>336</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>44</v>
       </c>
@@ -7478,31 +7476,31 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>111</v>
+        <v>335</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>44</v>
+        <v>339</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>44</v>
@@ -7510,18 +7508,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>44</v>
@@ -7533,18 +7531,18 @@
         <v>44</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>96</v>
+        <v>341</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>115</v>
+        <v>342</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>44</v>
       </c>
@@ -7592,31 +7590,31 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>119</v>
+        <v>340</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>112</v>
+        <v>345</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>44</v>
+        <v>346</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>44</v>
@@ -7624,42 +7622,40 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>324</v>
+        <v>44</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>325</v>
+        <v>240</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>148</v>
+        <v>349</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>44</v>
@@ -7684,13 +7680,13 @@
         <v>44</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>44</v>
+        <v>244</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>44</v>
+        <v>245</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>44</v>
@@ -7708,31 +7704,31 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>94</v>
+        <v>246</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>44</v>
+        <v>350</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>44</v>
@@ -7740,7 +7736,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7751,7 +7747,7 @@
         <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>44</v>
@@ -7763,17 +7759,17 @@
         <v>44</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>129</v>
+        <v>205</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>44</v>
@@ -7798,11 +7794,13 @@
         <v>44</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="X55" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y55" t="s" s="2">
-        <v>332</v>
+        <v>44</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>44</v>
@@ -7820,31 +7818,31 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>44</v>
+        <v>355</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>120</v>
+        <v>356</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>44</v>
@@ -7852,7 +7850,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7875,18 +7873,16 @@
         <v>44</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="M56" s="2"/>
-      <c r="N56" t="s" s="2">
-        <v>337</v>
-      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>44</v>
       </c>
@@ -7934,7 +7930,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -7949,16 +7945,16 @@
         <v>63</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>231</v>
+        <v>361</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>338</v>
+        <v>44</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>44</v>
@@ -7966,7 +7962,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7989,19 +7985,19 @@
         <v>44</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>235</v>
+        <v>310</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>239</v>
+        <v>366</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>44</v>
@@ -8050,7 +8046,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8065,16 +8061,16 @@
         <v>63</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>240</v>
+        <v>367</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>112</v>
+        <v>368</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>343</v>
+        <v>44</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>44</v>
@@ -8082,7 +8078,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8105,18 +8101,16 @@
         <v>44</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>345</v>
+        <v>53</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>346</v>
+        <v>104</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>347</v>
+        <v>105</v>
       </c>
       <c r="M58" s="2"/>
-      <c r="N58" t="s" s="2">
-        <v>348</v>
-      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>44</v>
       </c>
@@ -8164,7 +8158,7 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>344</v>
+        <v>106</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8176,19 +8170,19 @@
         <v>44</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>349</v>
+        <v>107</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>350</v>
+        <v>44</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>44</v>
@@ -8196,18 +8190,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>44</v>
@@ -8219,18 +8213,18 @@
         <v>44</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>244</v>
+        <v>110</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>44</v>
       </c>
@@ -8254,13 +8248,13 @@
         <v>44</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>248</v>
+        <v>44</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>249</v>
+        <v>44</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>44</v>
@@ -8278,31 +8272,31 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>351</v>
+        <v>114</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>250</v>
+        <v>107</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>354</v>
+        <v>44</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>44</v>
@@ -8310,40 +8304,42 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>44</v>
+        <v>320</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>209</v>
+        <v>96</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="N60" t="s" s="2">
-        <v>358</v>
+        <v>142</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>44</v>
@@ -8392,31 +8388,31 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>359</v>
+        <v>44</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>360</v>
+        <v>94</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>361</v>
+        <v>44</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>44</v>
@@ -8424,7 +8420,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8432,7 +8428,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>51</v>
@@ -8447,16 +8443,20 @@
         <v>44</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>44</v>
       </c>
@@ -8480,13 +8480,13 @@
         <v>44</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>44</v>
@@ -8504,10 +8504,10 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>51</v>
@@ -8519,16 +8519,16 @@
         <v>63</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>112</v>
+        <v>378</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>44</v>
+        <v>379</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>44</v>
@@ -8536,7 +8536,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8547,7 +8547,7 @@
         <v>42</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>44</v>
@@ -8559,19 +8559,19 @@
         <v>44</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>314</v>
+        <v>213</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>44</v>
@@ -8620,13 +8620,13 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>44</v>
@@ -8635,16 +8635,16 @@
         <v>63</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>44</v>
+        <v>387</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>44</v>
@@ -8652,18 +8652,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>44</v>
+        <v>389</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>44</v>
@@ -8675,15 +8675,17 @@
         <v>44</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>53</v>
+        <v>390</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>109</v>
+        <v>391</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>44</v>
@@ -8732,31 +8734,31 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>111</v>
+        <v>388</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>112</v>
+        <v>394</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>44</v>
+        <v>395</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>44</v>
@@ -8764,18 +8766,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>44</v>
@@ -8784,21 +8786,23 @@
         <v>44</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>96</v>
+        <v>397</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>115</v>
+        <v>398</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>116</v>
+        <v>399</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>44</v>
       </c>
@@ -8846,25 +8850,25 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>119</v>
+        <v>396</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>112</v>
+        <v>356</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>44</v>
+        <v>402</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>44</v>
@@ -8878,11 +8882,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>324</v>
+        <v>44</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8901,19 +8905,19 @@
         <v>52</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>96</v>
+        <v>310</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>325</v>
+        <v>404</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>326</v>
+        <v>405</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>117</v>
+        <v>406</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>148</v>
+        <v>407</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>44</v>
@@ -8962,7 +8966,7 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>327</v>
+        <v>403</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -8974,13 +8978,13 @@
         <v>44</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>94</v>
+        <v>408</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>44</v>
@@ -8994,7 +8998,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>376</v>
+        <v>409</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9002,7 +9006,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>51</v>
@@ -9017,20 +9021,16 @@
         <v>44</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>377</v>
+        <v>104</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>44</v>
       </c>
@@ -9054,13 +9054,13 @@
         <v>44</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>44</v>
@@ -9078,10 +9078,10 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>376</v>
+        <v>106</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>51</v>
@@ -9090,19 +9090,19 @@
         <v>44</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>381</v>
+        <v>107</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>382</v>
+        <v>44</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>383</v>
+        <v>44</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>44</v>
@@ -9110,18 +9110,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>44</v>
@@ -9133,20 +9133,18 @@
         <v>44</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>217</v>
+        <v>96</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>385</v>
+        <v>110</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>386</v>
+        <v>111</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>44</v>
       </c>
@@ -9194,31 +9192,31 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>384</v>
+        <v>114</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>389</v>
+        <v>107</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>390</v>
+        <v>44</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>391</v>
+        <v>44</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>44</v>
@@ -9226,11 +9224,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>393</v>
+        <v>320</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9243,24 +9241,26 @@
         <v>44</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>394</v>
+        <v>96</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>395</v>
+        <v>321</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>396</v>
+        <v>322</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>44</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>392</v>
+        <v>323</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9320,19 +9320,19 @@
         <v>44</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>398</v>
+        <v>94</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>399</v>
+        <v>44</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>44</v>
@@ -9340,7 +9340,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>51</v>
@@ -9363,20 +9363,18 @@
         <v>52</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>44</v>
       </c>
@@ -9424,10 +9422,10 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>51</v>
@@ -9439,16 +9437,16 @@
         <v>63</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>360</v>
+        <v>151</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>406</v>
+        <v>107</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>44</v>
+        <v>417</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>44</v>
@@ -9456,7 +9454,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9464,35 +9462,31 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>314</v>
+        <v>71</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>44</v>
       </c>
@@ -9516,13 +9510,13 @@
         <v>44</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>44</v>
+        <v>420</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>44</v>
+        <v>421</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>44</v>
@@ -9540,13 +9534,13 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>44</v>
@@ -9555,10 +9549,10 @@
         <v>63</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>44</v>
@@ -9567,579 +9561,11 @@
         <v>44</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN75" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN75">
+  <autoFilter ref="A1:AN70">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10149,7 +9575,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI74">
+  <conditionalFormatting sqref="A2:AI69">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-patient.xlsx
+++ b/StructureDefinition-be-patient.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$71</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2528" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2560" uniqueCount="429">
   <si>
     <t>Path</t>
   </si>
@@ -340,6 +340,36 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>nationality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {patient-nationality}
+</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>The nationality of the patient.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>birthPlace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {patient-birthPlace}
+</t>
+  </si>
+  <si>
+    <t>Place of Birth for patient</t>
+  </si>
+  <si>
+    <t>The registered place of birth of the patient. A sytem may use the address.text if they don't store the birthPlace address in discrete elements.</t>
+  </si>
+  <si>
     <t>Patient.extension.id</t>
   </si>
   <si>
@@ -356,106 +386,65 @@
   </si>
   <si>
     <t>Patient.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Patient.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/patient-birthPlace</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Patient.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>valueAddress</t>
+  </si>
+  <si>
+    <t>Patient.modifierExtension</t>
   </si>
   <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>Patient.extension.extension.id</t>
-  </si>
-  <si>
-    <t>Patient.extension.extension.extension</t>
-  </si>
-  <si>
-    <t>Patient.extension.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Patient.extension.extension.value[x]</t>
-  </si>
-  <si>
-    <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>Patient.extension.url</t>
-  </si>
-  <si>
-    <t>Patient.extension.value[x]</t>
-  </si>
-  <si>
-    <t>nationality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {patient-nationality}
-</t>
-  </si>
-  <si>
-    <t>Nationality</t>
-  </si>
-  <si>
-    <t>The nationality of the patient.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>birthPlace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {patient-birthPlace}
-</t>
-  </si>
-  <si>
-    <t>Place of Birth for patient</t>
-  </si>
-  <si>
-    <t>The registered place of birth of the patient. A sytem may use the address.text if they don't store the birthPlace address in discrete elements.</t>
-  </si>
-  <si>
-    <t>Patient.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -463,6 +452,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -511,6 +503,12 @@
   </si>
   <si>
     <t>Patient.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Patient.identifier.use</t>
@@ -852,6 +850,28 @@
   </si>
   <si>
     <t>The time of day that the Patient was born. This includes the date to ensure that the timezone information can be communicated effectively.</t>
+  </si>
+  <si>
+    <t>Patient.birthDate.extension.id</t>
+  </si>
+  <si>
+    <t>Patient.birthDate.extension.extension</t>
+  </si>
+  <si>
+    <t>Patient.birthDate.extension.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/patient-birthTime</t>
+  </si>
+  <si>
+    <t>Patient.birthDate.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>valueDateTime</t>
   </si>
   <si>
     <t>Patient.birthDate.value</t>
@@ -1061,6 +1081,9 @@
     <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-contactperson</t>
   </si>
   <si>
+    <t>code</t>
+  </si>
+  <si>
     <t>NK1-7, NK1-3</t>
   </si>
   <si>
@@ -1095,10 +1118,6 @@
   </si>
   <si>
     <t>Patient.contact.address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address
-</t>
   </si>
   <si>
     <t>Address for the contact person</t>
@@ -1517,7 +1536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN70"/>
+  <dimension ref="A1:AN71"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1527,7 +1546,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.83984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.5078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -2596,9 +2615,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>44</v>
       </c>
@@ -2607,7 +2628,7 @@
         <v>42</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>44</v>
@@ -2619,13 +2640,13 @@
         <v>44</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2676,22 +2697,22 @@
         <v>44</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>44</v>
@@ -2708,18 +2729,20 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>44</v>
@@ -2731,7 +2754,7 @@
         <v>44</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>110</v>
@@ -2739,9 +2762,7 @@
       <c r="L11" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M11" t="s" s="2">
-        <v>112</v>
-      </c>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>44</v>
@@ -2778,19 +2799,19 @@
         <v>44</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="AC11" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
@@ -2799,13 +2820,13 @@
         <v>43</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>44</v>
@@ -2822,11 +2843,9 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>44</v>
       </c>
@@ -2835,7 +2854,7 @@
         <v>42</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>44</v>
@@ -2847,13 +2866,13 @@
         <v>44</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2904,22 +2923,22 @@
         <v>44</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>44</v>
@@ -2936,7 +2955,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2947,7 +2966,7 @@
         <v>42</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>44</v>
@@ -2959,13 +2978,13 @@
         <v>44</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3004,34 +3023,34 @@
         <v>44</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>44</v>
@@ -3048,18 +3067,18 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>44</v>
@@ -3071,16 +3090,16 @@
         <v>44</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3088,7 +3107,7 @@
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="R14" t="s" s="2">
         <v>44</v>
@@ -3118,34 +3137,34 @@
         <v>44</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>44</v>
@@ -3162,7 +3181,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3185,24 +3204,22 @@
         <v>44</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>121</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="R15" t="s" s="2">
         <v>44</v>
@@ -3232,22 +3249,20 @@
         <v>44</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="AB15" s="2"/>
       <c r="AC15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>51</v>
@@ -3256,7 +3271,7 @@
         <v>44</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>94</v>
@@ -3276,9 +3291,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="C16" t="s" s="2">
         <v>44</v>
       </c>
@@ -3299,13 +3316,13 @@
         <v>44</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3356,7 +3373,7 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3388,41 +3405,43 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>44</v>
       </c>
@@ -3470,19 +3489,19 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>94</v>
@@ -3502,7 +3521,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3513,7 +3532,7 @@
         <v>42</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>44</v>
@@ -3522,19 +3541,21 @@
         <v>44</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="N18" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>44</v>
       </c>
@@ -3570,25 +3591,25 @@
         <v>44</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="AC18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>44</v>
@@ -3597,27 +3618,27 @@
         <v>63</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>44</v>
@@ -3630,25 +3651,27 @@
         <v>43</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>44</v>
       </c>
@@ -3696,7 +3719,7 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3705,22 +3728,22 @@
         <v>43</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>44</v>
@@ -3728,11 +3751,9 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>44</v>
       </c>
@@ -3753,13 +3774,13 @@
         <v>44</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3810,22 +3831,22 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>44</v>
@@ -3842,11 +3863,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3859,7 +3880,7 @@
         <v>44</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>44</v>
@@ -3868,17 +3889,15 @@
         <v>96</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>44</v>
       </c>
@@ -3914,19 +3933,19 @@
         <v>44</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3941,7 +3960,7 @@
         <v>102</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>44</v>
@@ -3958,7 +3977,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3969,29 +3988,31 @@
         <v>42</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>145</v>
+        <v>71</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="N22" t="s" s="2">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>44</v>
@@ -4016,37 +4037,37 @@
         <v>44</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>149</v>
+        <v>44</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>44</v>
@@ -4055,28 +4076,26 @@
         <v>63</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>44</v>
       </c>
@@ -4085,10 +4104,10 @@
         <v>42</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>44</v>
@@ -4097,17 +4116,19 @@
         <v>52</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="N23" t="s" s="2">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>44</v>
@@ -4132,13 +4153,13 @@
         <v>44</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>44</v>
+        <v>175</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>44</v>
@@ -4156,13 +4177,13 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>44</v>
@@ -4171,16 +4192,16 @@
         <v>63</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>44</v>
@@ -4188,7 +4209,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4196,7 +4217,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>51</v>
@@ -4208,19 +4229,23 @@
         <v>44</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>104</v>
+        <v>179</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>44</v>
       </c>
@@ -4229,10 +4254,10 @@
         <v>44</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>44</v>
+        <v>184</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>44</v>
@@ -4268,7 +4293,7 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4280,10 +4305,10 @@
         <v>44</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>44</v>
@@ -4292,7 +4317,7 @@
         <v>44</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>44</v>
+        <v>187</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>44</v>
@@ -4300,18 +4325,18 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>44</v>
@@ -4320,19 +4345,19 @@
         <v>44</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4346,7 +4371,7 @@
         <v>44</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>44</v>
@@ -4370,34 +4395,34 @@
         <v>44</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>114</v>
+        <v>193</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>107</v>
+        <v>194</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>44</v>
@@ -4406,7 +4431,7 @@
         <v>44</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>44</v>
+        <v>195</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>44</v>
@@ -4414,7 +4439,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4431,26 +4456,22 @@
         <v>44</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>71</v>
+        <v>197</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>44</v>
       </c>
@@ -4474,13 +4495,13 @@
         <v>44</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>44</v>
@@ -4498,7 +4519,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4513,7 +4534,7 @@
         <v>63</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>44</v>
@@ -4522,7 +4543,7 @@
         <v>44</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>94</v>
+        <v>202</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>44</v>
@@ -4530,7 +4551,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4553,20 +4574,18 @@
         <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>44</v>
       </c>
@@ -4590,13 +4609,13 @@
         <v>44</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>174</v>
+        <v>44</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>175</v>
+        <v>44</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>176</v>
+        <v>44</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>44</v>
@@ -4614,7 +4633,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4629,7 +4648,7 @@
         <v>63</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>44</v>
@@ -4638,7 +4657,7 @@
         <v>44</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>44</v>
@@ -4646,7 +4665,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4663,38 +4682,40 @@
         <v>44</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>65</v>
+        <v>212</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P28" s="2"/>
+      <c r="P28" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="Q28" t="s" s="2">
         <v>44</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>185</v>
+        <v>44</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>44</v>
@@ -4730,7 +4751,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4745,24 +4766,24 @@
         <v>63</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>44</v>
+        <v>219</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>188</v>
+        <v>44</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4770,13 +4791,13 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>44</v>
@@ -4785,18 +4806,20 @@
         <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>53</v>
+        <v>221</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>44</v>
       </c>
@@ -4808,7 +4831,7 @@
         <v>44</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>193</v>
+        <v>44</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>44</v>
@@ -4844,13 +4867,13 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>44</v>
@@ -4859,16 +4882,16 @@
         <v>63</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>44</v>
+        <v>227</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>44</v>
@@ -4876,7 +4899,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4887,7 +4910,7 @@
         <v>42</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>44</v>
@@ -4899,16 +4922,20 @@
         <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>44</v>
       </c>
@@ -4956,13 +4983,13 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>44</v>
@@ -4971,16 +4998,16 @@
         <v>63</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>44</v>
+        <v>236</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -4988,7 +5015,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4996,7 +5023,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>51</v>
@@ -5011,18 +5038,20 @@
         <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>44</v>
       </c>
@@ -5046,13 +5075,13 @@
         <v>44</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>44</v>
+        <v>244</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>44</v>
@@ -5070,7 +5099,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -5085,16 +5114,16 @@
         <v>63</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>44</v>
+        <v>246</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>44</v>
@@ -5102,7 +5131,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5119,32 +5148,30 @@
         <v>44</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P32" t="s" s="2">
-        <v>218</v>
-      </c>
+      <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
         <v>44</v>
       </c>
@@ -5188,7 +5215,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5203,24 +5230,24 @@
         <v>63</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>107</v>
+        <v>255</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>44</v>
+        <v>256</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>44</v>
+        <v>257</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5231,32 +5258,28 @@
         <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>222</v>
+        <v>53</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>44</v>
       </c>
@@ -5304,31 +5327,31 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>221</v>
+        <v>115</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>227</v>
+        <v>44</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>228</v>
+        <v>44</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>229</v>
+        <v>44</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>44</v>
@@ -5336,7 +5359,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5356,23 +5379,19 @@
         <v>44</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>231</v>
+        <v>96</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>232</v>
+        <v>97</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>44</v>
       </c>
@@ -5408,19 +5427,17 @@
         <v>44</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AB34" s="2"/>
       <c r="AC34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>230</v>
+        <v>119</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5432,19 +5449,19 @@
         <v>44</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>236</v>
+        <v>44</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>238</v>
+        <v>44</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>44</v>
@@ -5452,15 +5469,17 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="C35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>51</v>
@@ -5472,23 +5491,19 @@
         <v>44</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>71</v>
+        <v>263</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>44</v>
       </c>
@@ -5512,13 +5527,13 @@
         <v>44</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>244</v>
+        <v>44</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>245</v>
+        <v>44</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>44</v>
@@ -5536,31 +5551,31 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>239</v>
+        <v>119</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>246</v>
+        <v>44</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>247</v>
+        <v>44</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>248</v>
+        <v>44</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>44</v>
@@ -5568,7 +5583,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5588,23 +5603,19 @@
         <v>44</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>250</v>
+        <v>53</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>251</v>
+        <v>113</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>44</v>
       </c>
@@ -5652,7 +5663,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>249</v>
+        <v>115</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5664,27 +5675,27 @@
         <v>44</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>255</v>
+        <v>116</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>256</v>
+        <v>44</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>257</v>
+        <v>44</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>258</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5695,7 +5706,7 @@
         <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>44</v>
@@ -5707,13 +5718,13 @@
         <v>44</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>260</v>
+        <v>97</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>261</v>
+        <v>98</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5752,31 +5763,31 @@
         <v>44</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>44</v>
@@ -5796,7 +5807,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5804,10 +5815,10 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>44</v>
@@ -5819,22 +5830,24 @@
         <v>44</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>44</v>
+        <v>269</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>44</v>
@@ -5864,32 +5877,34 @@
         <v>44</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB38" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>44</v>
@@ -5906,17 +5921,15 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>51</v>
@@ -5931,13 +5944,13 @@
         <v>44</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>265</v>
+        <v>128</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>266</v>
+        <v>129</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5976,34 +5989,32 @@
         <v>44</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="AB39" s="2"/>
       <c r="AC39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>44</v>
@@ -6020,9 +6031,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="B40" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="C40" t="s" s="2">
         <v>44</v>
       </c>
@@ -6043,13 +6056,13 @@
         <v>44</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>268</v>
+        <v>128</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>269</v>
+        <v>129</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6100,7 +6113,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>270</v>
+        <v>132</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6112,10 +6125,10 @@
         <v>44</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>44</v>
@@ -6132,7 +6145,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6149,26 +6162,22 @@
         <v>44</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N41" t="s" s="2">
         <v>275</v>
       </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>44</v>
       </c>
@@ -6216,7 +6225,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6228,19 +6237,19 @@
         <v>44</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>276</v>
+        <v>44</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>277</v>
+        <v>44</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>44</v>
@@ -6248,7 +6257,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6259,31 +6268,31 @@
         <v>42</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>44</v>
@@ -6332,31 +6341,31 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>44</v>
@@ -6364,7 +6373,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6375,7 +6384,7 @@
         <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>44</v>
@@ -6387,15 +6396,17 @@
         <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>169</v>
+        <v>285</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
         <v>289</v>
       </c>
@@ -6422,11 +6433,13 @@
         <v>44</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y43" t="s" s="2">
-        <v>290</v>
+        <v>44</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>44</v>
@@ -6444,31 +6457,31 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>44</v>
@@ -6476,7 +6489,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6499,19 +6512,17 @@
         <v>44</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>44</v>
@@ -6536,13 +6547,11 @@
         <v>44</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
-        <v>44</v>
+        <v>296</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>44</v>
@@ -6560,7 +6569,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6575,16 +6584,16 @@
         <v>63</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>44</v>
@@ -6592,7 +6601,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6603,7 +6612,7 @@
         <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>44</v>
@@ -6615,19 +6624,19 @@
         <v>44</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>44</v>
@@ -6676,13 +6685,13 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>44</v>
@@ -6691,16 +6700,16 @@
         <v>63</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>44</v>
@@ -6708,7 +6717,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6731,19 +6740,19 @@
         <v>44</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>44</v>
@@ -6792,7 +6801,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6804,19 +6813,19 @@
         <v>44</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>315</v>
+        <v>63</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>44</v>
+        <v>314</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>44</v>
@@ -6824,7 +6833,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6835,7 +6844,7 @@
         <v>42</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>44</v>
@@ -6847,16 +6856,20 @@
         <v>44</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>53</v>
+        <v>316</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>104</v>
+        <v>317</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>44</v>
       </c>
@@ -6904,25 +6917,25 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>106</v>
+        <v>315</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>44</v>
+        <v>321</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>107</v>
+        <v>322</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>44</v>
@@ -6936,18 +6949,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>44</v>
@@ -6959,17 +6972,15 @@
         <v>44</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>44</v>
@@ -7018,22 +7029,22 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>44</v>
@@ -7050,11 +7061,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>320</v>
+        <v>135</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7067,26 +7078,24 @@
         <v>44</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>321</v>
+        <v>155</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>322</v>
+        <v>156</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>44</v>
       </c>
@@ -7134,7 +7143,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>323</v>
+        <v>119</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7149,7 +7158,7 @@
         <v>102</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>44</v>
@@ -7166,11 +7175,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>44</v>
+        <v>326</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7183,23 +7192,25 @@
         <v>44</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="N50" t="s" s="2">
-        <v>327</v>
+        <v>139</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>44</v>
@@ -7224,11 +7235,13 @@
         <v>44</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X50" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y50" t="s" s="2">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>44</v>
@@ -7246,7 +7259,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7258,19 +7271,19 @@
         <v>44</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>329</v>
+        <v>44</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>44</v>
@@ -7289,7 +7302,7 @@
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>44</v>
@@ -7301,7 +7314,7 @@
         <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>331</v>
@@ -7336,13 +7349,11 @@
         <v>44</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="X51" s="2"/>
       <c r="Y51" t="s" s="2">
-        <v>44</v>
+        <v>334</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>44</v>
@@ -7366,7 +7377,7 @@
         <v>42</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>44</v>
@@ -7375,16 +7386,16 @@
         <v>63</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>227</v>
+        <v>335</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>44</v>
@@ -7392,7 +7403,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7403,7 +7414,7 @@
         <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>44</v>
@@ -7415,19 +7426,17 @@
         <v>44</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>235</v>
+        <v>340</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>44</v>
@@ -7476,13 +7485,13 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>44</v>
@@ -7491,16 +7500,16 @@
         <v>63</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>44</v>
@@ -7508,7 +7517,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7519,7 +7528,7 @@
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>44</v>
@@ -7531,17 +7540,19 @@
         <v>44</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>341</v>
+        <v>230</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="N53" t="s" s="2">
-        <v>344</v>
+        <v>234</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>44</v>
@@ -7590,13 +7601,13 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>44</v>
@@ -7605,10 +7616,10 @@
         <v>63</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>345</v>
+        <v>235</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>44</v>
@@ -7645,17 +7656,17 @@
         <v>44</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>240</v>
+        <v>348</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>44</v>
@@ -7680,13 +7691,13 @@
         <v>44</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>244</v>
+        <v>44</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>245</v>
+        <v>44</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>44</v>
@@ -7719,16 +7730,16 @@
         <v>63</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>246</v>
+        <v>351</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>44</v>
@@ -7736,7 +7747,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7759,17 +7770,17 @@
         <v>44</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>352</v>
+        <v>239</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>44</v>
@@ -7794,13 +7805,13 @@
         <v>44</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>44</v>
+        <v>244</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>44</v>
@@ -7818,7 +7829,7 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -7827,22 +7838,22 @@
         <v>51</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>355</v>
+        <v>44</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>44</v>
@@ -7850,7 +7861,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7873,16 +7884,18 @@
         <v>44</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" s="2"/>
+      <c r="N56" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>44</v>
       </c>
@@ -7930,7 +7943,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -7939,22 +7952,22 @@
         <v>51</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>44</v>
+        <v>361</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>44</v>
+        <v>363</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>44</v>
@@ -7962,7 +7975,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7973,7 +7986,7 @@
         <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>44</v>
@@ -7985,20 +7998,16 @@
         <v>44</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>310</v>
+        <v>197</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N57" t="s" s="2">
         <v>366</v>
       </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>44</v>
       </c>
@@ -8046,13 +8055,13 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>44</v>
@@ -8064,7 +8073,7 @@
         <v>367</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>368</v>
+        <v>116</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>44</v>
@@ -8078,7 +8087,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8089,7 +8098,7 @@
         <v>42</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>44</v>
@@ -8101,16 +8110,20 @@
         <v>44</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>53</v>
+        <v>316</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>104</v>
+        <v>369</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>44</v>
       </c>
@@ -8158,25 +8171,25 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>106</v>
+        <v>368</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>107</v>
+        <v>373</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>44</v>
+        <v>374</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>44</v>
@@ -8190,18 +8203,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>44</v>
@@ -8213,17 +8226,15 @@
         <v>44</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>44</v>
@@ -8272,22 +8283,22 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>44</v>
@@ -8304,11 +8315,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>320</v>
+        <v>135</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8321,26 +8332,24 @@
         <v>44</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>321</v>
+        <v>155</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>322</v>
+        <v>156</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>44</v>
       </c>
@@ -8388,7 +8397,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>323</v>
+        <v>119</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8403,7 +8412,7 @@
         <v>102</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>44</v>
@@ -8420,42 +8429,42 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>44</v>
+        <v>326</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>373</v>
+        <v>327</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>374</v>
+        <v>328</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>375</v>
+        <v>138</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>376</v>
+        <v>139</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>44</v>
@@ -8480,13 +8489,13 @@
         <v>44</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>44</v>
@@ -8504,31 +8513,31 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>372</v>
+        <v>329</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>377</v>
+        <v>94</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>378</v>
+        <v>44</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>379</v>
+        <v>44</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>44</v>
@@ -8536,7 +8545,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8544,7 +8553,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>51</v>
@@ -8559,19 +8568,19 @@
         <v>44</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>44</v>
@@ -8596,13 +8605,13 @@
         <v>44</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>44</v>
@@ -8620,10 +8629,10 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>51</v>
@@ -8635,16 +8644,16 @@
         <v>63</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>44</v>
@@ -8652,18 +8661,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>389</v>
+        <v>44</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>44</v>
@@ -8675,18 +8684,20 @@
         <v>44</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="K63" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>44</v>
       </c>
@@ -8734,13 +8745,13 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>44</v>
@@ -8749,16 +8760,16 @@
         <v>63</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>107</v>
+        <v>392</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>44</v>
@@ -8766,18 +8777,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>44</v>
+        <v>395</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>44</v>
@@ -8786,23 +8797,21 @@
         <v>44</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M64" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>401</v>
-      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>44</v>
       </c>
@@ -8850,13 +8859,13 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>44</v>
@@ -8865,16 +8874,16 @@
         <v>63</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>402</v>
+        <v>116</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>44</v>
+        <v>401</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>44</v>
@@ -8882,7 +8891,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8893,19 +8902,19 @@
         <v>42</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>310</v>
+        <v>403</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>404</v>
@@ -8966,13 +8975,13 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>44</v>
@@ -8981,10 +8990,10 @@
         <v>63</v>
       </c>
       <c r="AJ65" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AK65" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>44</v>
@@ -9009,28 +9018,32 @@
         <v>42</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>53</v>
+        <v>316</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>104</v>
+        <v>410</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>44</v>
       </c>
@@ -9078,25 +9091,25 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>106</v>
+        <v>409</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>107</v>
+        <v>414</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>44</v>
@@ -9110,18 +9123,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>44</v>
@@ -9133,17 +9146,15 @@
         <v>44</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>44</v>
@@ -9192,22 +9203,22 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>44</v>
@@ -9224,11 +9235,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>320</v>
+        <v>135</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9241,26 +9252,24 @@
         <v>44</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>321</v>
+        <v>155</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>322</v>
+        <v>156</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>44</v>
       </c>
@@ -9308,7 +9317,7 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>323</v>
+        <v>119</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9323,7 +9332,7 @@
         <v>102</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>44</v>
@@ -9340,41 +9349,43 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>44</v>
+        <v>326</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>413</v>
+        <v>96</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>414</v>
+        <v>327</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>415</v>
+        <v>328</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>44</v>
       </c>
@@ -9422,31 +9433,31 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>412</v>
+        <v>329</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>417</v>
+        <v>44</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>44</v>
@@ -9477,15 +9488,17 @@
         <v>52</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>71</v>
+        <v>419</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>44</v>
@@ -9510,13 +9523,13 @@
         <v>44</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>420</v>
+        <v>44</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>421</v>
+        <v>44</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>44</v>
@@ -9549,23 +9562,135 @@
         <v>63</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>422</v>
+        <v>148</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>44</v>
+        <v>423</v>
       </c>
       <c r="AN70" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN70">
+  <autoFilter ref="A1:AN71">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9575,7 +9700,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI69">
+  <conditionalFormatting sqref="A2:AI70">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-patient.xlsx
+++ b/StructureDefinition-be-patient.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$85</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2560" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3056" uniqueCount="436">
   <si>
     <t>Path</t>
   </si>
@@ -357,6 +357,103 @@
 </t>
   </si>
   <si>
+    <t>Patient.extension.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Patient.extension.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>Patient.extension.extension.id</t>
+  </si>
+  <si>
+    <t>Patient.extension.extension.extension</t>
+  </si>
+  <si>
+    <t>Patient.extension.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Patient.extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Patient.extension.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/patient-nationality</t>
+  </si>
+  <si>
+    <t>Patient.extension.value[x]</t>
+  </si>
+  <si>
+    <t>base64Binary
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
+  </si>
+  <si>
     <t>birthPlace</t>
   </si>
   <si>
@@ -370,61 +467,13 @@
     <t>The registered place of birth of the patient. A sytem may use the address.text if they don't store the birthPlace address in discrete elements.</t>
   </si>
   <si>
-    <t>Patient.extension.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Patient.extension.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Patient.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/StructureDefinition/patient-birthPlace</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Patient.extension.value[x]</t>
   </si>
   <si>
     <t xml:space="preserve">Address
 </t>
   </si>
   <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
-  </si>
-  <si>
     <t xml:space="preserve">type:$this}
 </t>
   </si>
@@ -432,17 +481,10 @@
     <t>closed</t>
   </si>
   <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
     <t>valueAddress</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
   </si>
   <si>
     <t>Extensions that cannot be ignored</t>
@@ -452,9 +494,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -505,12 +544,6 @@
     <t>Patient.identifier.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Patient.identifier.use</t>
   </si>
   <si>
@@ -544,10 +577,6 @@
     <t>Patient.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Description of identifier</t>
   </si>
   <si>
@@ -630,10 +659,6 @@
   </si>
   <si>
     <t>Patient.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
   </si>
   <si>
     <t>Time period when id is/was valid for use</t>
@@ -1079,9 +1104,6 @@
   </si>
   <si>
     <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-contactperson</t>
-  </si>
-  <si>
-    <t>code</t>
   </si>
   <si>
     <t>NK1-7, NK1-3</t>
@@ -1536,7 +1558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN71"/>
+  <dimension ref="A1:AN85"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2729,11 +2751,9 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="B11" t="s" s="2">
         <v>108</v>
       </c>
+      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>44</v>
       </c>
@@ -2754,13 +2774,13 @@
         <v>44</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2811,22 +2831,22 @@
         <v>44</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>44</v>
@@ -2843,18 +2863,18 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>44</v>
@@ -2866,15 +2886,17 @@
         <v>44</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>44</v>
@@ -2911,34 +2933,34 @@
         <v>44</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>44</v>
@@ -2955,9 +2977,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="C13" t="s" s="2">
         <v>44</v>
       </c>
@@ -2966,7 +2990,7 @@
         <v>42</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>44</v>
@@ -3023,16 +3047,16 @@
         <v>44</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>119</v>
@@ -3067,7 +3091,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3075,7 +3099,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>51</v>
@@ -3090,24 +3114,22 @@
         <v>44</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="R14" t="s" s="2">
         <v>44</v>
@@ -3149,10 +3171,10 @@
         <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>51</v>
@@ -3164,7 +3186,7 @@
         <v>44</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>44</v>
@@ -3181,7 +3203,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3189,10 +3211,10 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>44</v>
@@ -3204,13 +3226,13 @@
         <v>44</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3249,32 +3271,34 @@
         <v>44</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AB15" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="AC15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>44</v>
@@ -3291,17 +3315,15 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>51</v>
@@ -3316,22 +3338,24 @@
         <v>44</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="R16" t="s" s="2">
         <v>44</v>
@@ -3373,10 +3397,10 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>51</v>
@@ -3385,7 +3409,7 @@
         <v>44</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>94</v>
@@ -3405,43 +3429,39 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>44</v>
       </c>
@@ -3489,19 +3509,19 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>94</v>
@@ -3521,9 +3541,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>44</v>
       </c>
@@ -3532,7 +3554,7 @@
         <v>42</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>44</v>
@@ -3541,21 +3563,19 @@
         <v>44</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="N18" t="s" s="2">
-        <v>145</v>
-      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>44</v>
       </c>
@@ -3591,19 +3611,19 @@
         <v>44</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="AC18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3615,31 +3635,29 @@
         <v>44</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>148</v>
+        <v>44</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>149</v>
+        <v>44</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>151</v>
+        <v>44</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>44</v>
       </c>
@@ -3648,30 +3666,28 @@
         <v>42</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>142</v>
+        <v>53</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="N19" t="s" s="2">
-        <v>145</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>44</v>
       </c>
@@ -3719,31 +3735,31 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>149</v>
+        <v>44</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>151</v>
+        <v>44</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>44</v>
@@ -3751,7 +3767,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3762,7 +3778,7 @@
         <v>42</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>44</v>
@@ -3774,13 +3790,13 @@
         <v>44</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3819,34 +3835,34 @@
         <v>44</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>44</v>
@@ -3863,18 +3879,18 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>44</v>
@@ -3886,16 +3902,16 @@
         <v>44</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3903,7 +3919,7 @@
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>44</v>
@@ -3933,34 +3949,34 @@
         <v>44</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>44</v>
@@ -3977,7 +3993,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3985,7 +4001,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>51</v>
@@ -3994,26 +4010,22 @@
         <v>44</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>44</v>
       </c>
@@ -4037,13 +4049,13 @@
         <v>44</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>44</v>
@@ -4061,7 +4073,7 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -4076,7 +4088,7 @@
         <v>63</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>44</v>
@@ -4085,7 +4097,7 @@
         <v>44</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>44</v>
@@ -4093,7 +4105,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4101,7 +4113,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>51</v>
@@ -4113,29 +4125,27 @@
         <v>44</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>168</v>
+        <v>65</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>44</v>
@@ -4153,13 +4163,13 @@
         <v>44</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>173</v>
+        <v>44</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>174</v>
+        <v>44</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>175</v>
+        <v>44</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>44</v>
@@ -4177,10 +4187,10 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>51</v>
@@ -4189,10 +4199,10 @@
         <v>44</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>44</v>
@@ -4201,7 +4211,7 @@
         <v>44</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>177</v>
+        <v>44</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>44</v>
@@ -4209,7 +4219,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4217,10 +4227,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>44</v>
@@ -4229,23 +4239,19 @@
         <v>44</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>44</v>
       </c>
@@ -4254,10 +4260,10 @@
         <v>44</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>183</v>
+        <v>44</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>44</v>
@@ -4293,7 +4299,7 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>185</v>
+        <v>132</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4308,7 +4314,7 @@
         <v>63</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>186</v>
+        <v>94</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>44</v>
@@ -4317,7 +4323,7 @@
         <v>44</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>187</v>
+        <v>44</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>44</v>
@@ -4325,15 +4331,17 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="C25" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>51</v>
@@ -4345,20 +4353,18 @@
         <v>44</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>44</v>
@@ -4371,7 +4377,7 @@
         <v>44</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>44</v>
@@ -4407,22 +4413,22 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>194</v>
+        <v>44</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>44</v>
@@ -4431,7 +4437,7 @@
         <v>44</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>195</v>
+        <v>44</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>44</v>
@@ -4439,7 +4445,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>196</v>
+        <v>108</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4459,16 +4465,16 @@
         <v>44</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>197</v>
+        <v>53</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>199</v>
+        <v>110</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4519,7 +4525,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4531,10 +4537,10 @@
         <v>44</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>201</v>
+        <v>112</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>44</v>
@@ -4543,7 +4549,7 @@
         <v>44</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>44</v>
@@ -4551,7 +4557,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>203</v>
+        <v>113</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4562,7 +4568,7 @@
         <v>42</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>44</v>
@@ -4571,20 +4577,18 @@
         <v>44</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>204</v>
+        <v>96</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>205</v>
+        <v>97</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>44</v>
@@ -4621,34 +4625,34 @@
         <v>44</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>208</v>
+        <v>119</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>209</v>
+        <v>44</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>44</v>
@@ -4657,7 +4661,7 @@
         <v>44</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>210</v>
+        <v>44</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>44</v>
@@ -4665,7 +4669,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4673,7 +4677,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>51</v>
@@ -4682,34 +4686,30 @@
         <v>44</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>212</v>
+        <v>65</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>213</v>
+        <v>124</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>214</v>
+        <v>125</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P28" t="s" s="2">
-        <v>217</v>
-      </c>
+      <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>44</v>
@@ -4751,10 +4751,10 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>211</v>
+        <v>127</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>51</v>
@@ -4763,16 +4763,16 @@
         <v>44</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>218</v>
+        <v>94</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>219</v>
+        <v>44</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>44</v>
@@ -4781,9 +4781,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>220</v>
+        <v>137</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4791,35 +4791,31 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>221</v>
+        <v>144</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>44</v>
       </c>
@@ -4855,25 +4851,23 @@
         <v>44</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="AB29" s="2"/>
       <c r="AC29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>220</v>
+        <v>132</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>44</v>
@@ -4882,16 +4876,16 @@
         <v>63</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>226</v>
+        <v>94</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>227</v>
+        <v>44</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>228</v>
+        <v>44</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>44</v>
@@ -4899,9 +4893,11 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="C30" t="s" s="2">
         <v>44</v>
       </c>
@@ -4910,7 +4906,7 @@
         <v>42</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>44</v>
@@ -4919,23 +4915,19 @@
         <v>44</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>230</v>
+        <v>144</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>231</v>
+        <v>130</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>44</v>
       </c>
@@ -4983,13 +4975,13 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>229</v>
+        <v>132</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>44</v>
@@ -4998,16 +4990,16 @@
         <v>63</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>236</v>
+        <v>44</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -5015,42 +5007,42 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>238</v>
+        <v>148</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>239</v>
+        <v>149</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>241</v>
+        <v>117</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>242</v>
+        <v>151</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>44</v>
@@ -5075,13 +5067,13 @@
         <v>44</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>243</v>
+        <v>44</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>244</v>
+        <v>44</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>44</v>
@@ -5099,31 +5091,31 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>238</v>
+        <v>152</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>245</v>
+        <v>94</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>246</v>
+        <v>44</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>247</v>
+        <v>44</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>44</v>
@@ -5131,7 +5123,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>248</v>
+        <v>153</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5142,7 +5134,7 @@
         <v>42</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>44</v>
@@ -5154,19 +5146,17 @@
         <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>249</v>
+        <v>154</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>253</v>
+        <v>157</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>44</v>
@@ -5203,25 +5193,25 @@
         <v>44</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>248</v>
+        <v>153</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>44</v>
@@ -5230,26 +5220,28 @@
         <v>63</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>254</v>
+        <v>160</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>255</v>
+        <v>161</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>256</v>
+        <v>163</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>257</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="B33" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="C33" t="s" s="2">
         <v>44</v>
       </c>
@@ -5258,28 +5250,30 @@
         <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>259</v>
+        <v>155</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>260</v>
+        <v>156</v>
       </c>
       <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>44</v>
       </c>
@@ -5327,31 +5321,31 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>44</v>
@@ -5359,7 +5353,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>261</v>
+        <v>165</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5370,7 +5364,7 @@
         <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>44</v>
@@ -5382,13 +5376,13 @@
         <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5427,32 +5421,34 @@
         <v>44</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB34" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>44</v>
@@ -5469,20 +5465,18 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>44</v>
@@ -5494,15 +5488,17 @@
         <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>263</v>
+        <v>96</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>264</v>
+        <v>115</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>44</v>
@@ -5539,16 +5535,16 @@
         <v>44</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>119</v>
@@ -5560,13 +5556,13 @@
         <v>43</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>44</v>
@@ -5583,7 +5579,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>266</v>
+        <v>167</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5600,22 +5596,26 @@
         <v>44</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>44</v>
       </c>
@@ -5639,13 +5639,13 @@
         <v>44</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>44</v>
@@ -5663,7 +5663,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5675,10 +5675,10 @@
         <v>44</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>116</v>
+        <v>176</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>44</v>
@@ -5687,7 +5687,7 @@
         <v>44</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>44</v>
@@ -5695,7 +5695,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>267</v>
+        <v>177</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5706,7 +5706,7 @@
         <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>44</v>
@@ -5715,19 +5715,23 @@
         <v>44</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>44</v>
       </c>
@@ -5751,46 +5755,46 @@
         <v>44</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>44</v>
+        <v>184</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>119</v>
+        <v>185</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>44</v>
@@ -5799,7 +5803,7 @@
         <v>44</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>44</v>
+        <v>186</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>44</v>
@@ -5807,7 +5811,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>268</v>
+        <v>187</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5827,33 +5831,35 @@
         <v>44</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>65</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>122</v>
+        <v>189</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>269</v>
+        <v>44</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>44</v>
@@ -5889,10 +5895,10 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>125</v>
+        <v>194</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>51</v>
@@ -5901,10 +5907,10 @@
         <v>44</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>94</v>
+        <v>195</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>44</v>
@@ -5913,7 +5919,7 @@
         <v>44</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>44</v>
+        <v>196</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>44</v>
@@ -5921,7 +5927,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>270</v>
+        <v>197</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5941,18 +5947,20 @@
         <v>44</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>271</v>
+        <v>53</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>44</v>
@@ -5965,7 +5973,7 @@
         <v>44</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>44</v>
@@ -5989,17 +5997,19 @@
         <v>44</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AB39" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -6014,7 +6024,7 @@
         <v>63</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>94</v>
+        <v>203</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>44</v>
@@ -6023,7 +6033,7 @@
         <v>44</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>44</v>
@@ -6031,11 +6041,9 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
         <v>44</v>
       </c>
@@ -6053,16 +6061,16 @@
         <v>44</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>271</v>
+        <v>134</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>128</v>
+        <v>206</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>129</v>
+        <v>207</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6113,7 +6121,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6128,7 +6136,7 @@
         <v>63</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>94</v>
+        <v>209</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>44</v>
@@ -6137,7 +6145,7 @@
         <v>44</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>44</v>
@@ -6145,7 +6153,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>273</v>
+        <v>211</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6165,18 +6173,20 @@
         <v>44</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>274</v>
+        <v>213</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>44</v>
@@ -6225,7 +6235,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>276</v>
+        <v>216</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6237,10 +6247,10 @@
         <v>44</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>44</v>
+        <v>217</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>44</v>
@@ -6249,7 +6259,7 @@
         <v>44</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>44</v>
+        <v>218</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>44</v>
@@ -6257,7 +6267,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>277</v>
+        <v>219</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6280,24 +6290,26 @@
         <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>278</v>
+        <v>221</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>280</v>
+        <v>223</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>281</v>
+        <v>224</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="Q42" t="s" s="2">
         <v>44</v>
       </c>
@@ -6341,7 +6353,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>277</v>
+        <v>219</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6356,24 +6368,24 @@
         <v>63</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>44</v>
+        <v>227</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>283</v>
+        <v>44</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>284</v>
+        <v>228</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6387,28 +6399,28 @@
         <v>43</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>285</v>
+        <v>229</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>286</v>
+        <v>230</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>287</v>
+        <v>231</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>288</v>
+        <v>232</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>289</v>
+        <v>233</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>44</v>
@@ -6457,7 +6469,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>284</v>
+        <v>228</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6466,22 +6478,22 @@
         <v>43</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>290</v>
+        <v>234</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>291</v>
+        <v>236</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>44</v>
@@ -6489,7 +6501,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>292</v>
+        <v>237</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6500,7 +6512,7 @@
         <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>44</v>
@@ -6509,20 +6521,22 @@
         <v>44</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>168</v>
+        <v>238</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="N44" t="s" s="2">
-        <v>295</v>
+        <v>242</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>44</v>
@@ -6547,11 +6561,13 @@
         <v>44</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="X44" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y44" t="s" s="2">
-        <v>296</v>
+        <v>44</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>44</v>
@@ -6569,13 +6585,13 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>292</v>
+        <v>237</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>44</v>
@@ -6584,16 +6600,16 @@
         <v>63</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>299</v>
+        <v>245</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>44</v>
@@ -6601,7 +6617,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6609,7 +6625,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>51</v>
@@ -6621,22 +6637,22 @@
         <v>44</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>212</v>
+        <v>71</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>303</v>
+        <v>249</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>44</v>
@@ -6661,13 +6677,13 @@
         <v>44</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>44</v>
+        <v>251</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>44</v>
+        <v>252</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>44</v>
@@ -6685,7 +6701,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6700,16 +6716,16 @@
         <v>63</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>305</v>
+        <v>253</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>116</v>
+        <v>254</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>306</v>
+        <v>255</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>44</v>
@@ -6717,7 +6733,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>307</v>
+        <v>256</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6728,7 +6744,7 @@
         <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>44</v>
@@ -6737,22 +6753,22 @@
         <v>44</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>308</v>
+        <v>257</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>309</v>
+        <v>258</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>310</v>
+        <v>259</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>311</v>
+        <v>260</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>312</v>
+        <v>261</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>44</v>
@@ -6801,13 +6817,13 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>307</v>
+        <v>256</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>44</v>
@@ -6816,24 +6832,24 @@
         <v>63</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>313</v>
+        <v>262</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>116</v>
+        <v>263</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>314</v>
+        <v>264</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>44</v>
+        <v>265</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>315</v>
+        <v>266</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6844,7 +6860,7 @@
         <v>42</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>44</v>
@@ -6856,20 +6872,16 @@
         <v>44</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>316</v>
+        <v>53</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>317</v>
+        <v>267</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>44</v>
       </c>
@@ -6917,25 +6929,25 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>315</v>
+        <v>111</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>321</v>
+        <v>44</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>322</v>
+        <v>44</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>44</v>
@@ -6949,7 +6961,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>323</v>
+        <v>269</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6960,7 +6972,7 @@
         <v>42</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>44</v>
@@ -6972,13 +6984,13 @@
         <v>44</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7017,34 +7029,32 @@
         <v>44</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AB48" s="2"/>
       <c r="AC48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>44</v>
@@ -7061,18 +7071,20 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="C49" t="s" s="2">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>44</v>
@@ -7084,17 +7096,15 @@
         <v>44</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>96</v>
+        <v>271</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>155</v>
+        <v>272</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>44</v>
@@ -7152,13 +7162,13 @@
         <v>43</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>44</v>
@@ -7175,43 +7185,39 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>325</v>
+        <v>274</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>326</v>
+        <v>44</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>327</v>
+        <v>109</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>44</v>
       </c>
@@ -7259,22 +7265,22 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>329</v>
+        <v>111</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>44</v>
@@ -7291,7 +7297,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7302,7 +7308,7 @@
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>44</v>
@@ -7314,18 +7320,16 @@
         <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>331</v>
+        <v>97</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>332</v>
+        <v>98</v>
       </c>
       <c r="M51" s="2"/>
-      <c r="N51" t="s" s="2">
-        <v>333</v>
-      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>44</v>
       </c>
@@ -7349,29 +7353,31 @@
         <v>44</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="X51" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y51" t="s" s="2">
-        <v>334</v>
+        <v>44</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>330</v>
+        <v>119</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7383,19 +7389,19 @@
         <v>44</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>336</v>
+        <v>44</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>44</v>
@@ -7403,7 +7409,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>337</v>
+        <v>276</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7411,7 +7417,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>51</v>
@@ -7426,24 +7432,24 @@
         <v>44</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>221</v>
+        <v>65</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>338</v>
+        <v>124</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>44</v>
+        <v>277</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>44</v>
@@ -7485,10 +7491,10 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>337</v>
+        <v>127</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>51</v>
@@ -7497,19 +7503,19 @@
         <v>44</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>226</v>
+        <v>94</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>341</v>
+        <v>44</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>44</v>
@@ -7517,7 +7523,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>342</v>
+        <v>278</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7525,10 +7531,10 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>44</v>
@@ -7540,20 +7546,16 @@
         <v>44</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>230</v>
+        <v>279</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>343</v>
+        <v>130</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>44</v>
       </c>
@@ -7589,25 +7591,23 @@
         <v>44</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="AB53" s="2"/>
       <c r="AC53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>342</v>
+        <v>132</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>44</v>
@@ -7616,16 +7616,16 @@
         <v>63</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>346</v>
+        <v>44</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>44</v>
@@ -7633,9 +7633,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="B54" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="C54" t="s" s="2">
         <v>44</v>
       </c>
@@ -7656,18 +7658,16 @@
         <v>44</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>127</v>
+        <v>279</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>348</v>
+        <v>130</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>349</v>
+        <v>131</v>
       </c>
       <c r="M54" s="2"/>
-      <c r="N54" t="s" s="2">
-        <v>350</v>
-      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>44</v>
       </c>
@@ -7715,7 +7715,7 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>347</v>
+        <v>132</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7730,16 +7730,16 @@
         <v>63</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>351</v>
+        <v>94</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>352</v>
+        <v>44</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>44</v>
@@ -7747,7 +7747,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>353</v>
+        <v>281</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7770,18 +7770,16 @@
         <v>44</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>71</v>
+        <v>257</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>239</v>
+        <v>282</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>354</v>
+        <v>283</v>
       </c>
       <c r="M55" s="2"/>
-      <c r="N55" t="s" s="2">
-        <v>355</v>
-      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>44</v>
       </c>
@@ -7805,13 +7803,13 @@
         <v>44</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>243</v>
+        <v>44</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>244</v>
+        <v>44</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>44</v>
@@ -7829,7 +7827,7 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>353</v>
+        <v>284</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -7841,19 +7839,19 @@
         <v>44</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>245</v>
+        <v>44</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>356</v>
+        <v>44</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>44</v>
@@ -7861,7 +7859,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>357</v>
+        <v>285</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7878,23 +7876,25 @@
         <v>44</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>358</v>
+        <v>286</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="N56" t="s" s="2">
-        <v>360</v>
+        <v>289</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>44</v>
@@ -7943,7 +7943,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>357</v>
+        <v>285</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -7952,22 +7952,22 @@
         <v>51</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>361</v>
+        <v>44</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>362</v>
+        <v>290</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>363</v>
+        <v>291</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>44</v>
@@ -7975,7 +7975,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>364</v>
+        <v>292</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7986,7 +7986,7 @@
         <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>44</v>
@@ -7998,16 +7998,20 @@
         <v>44</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>197</v>
+        <v>293</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>365</v>
+        <v>294</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>44</v>
       </c>
@@ -8055,31 +8059,31 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>364</v>
+        <v>292</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>367</v>
+        <v>298</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>44</v>
+        <v>299</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>44</v>
@@ -8087,7 +8091,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>368</v>
+        <v>300</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8098,7 +8102,7 @@
         <v>42</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>44</v>
@@ -8110,19 +8114,17 @@
         <v>44</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>316</v>
+        <v>129</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>369</v>
+        <v>301</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>372</v>
+        <v>303</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>44</v>
@@ -8147,13 +8149,11 @@
         <v>44</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X58" s="2"/>
       <c r="Y58" t="s" s="2">
-        <v>44</v>
+        <v>304</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>44</v>
@@ -8171,13 +8171,13 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>368</v>
+        <v>300</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>44</v>
@@ -8186,16 +8186,16 @@
         <v>63</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>373</v>
+        <v>305</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>374</v>
+        <v>306</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>44</v>
+        <v>307</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>44</v>
@@ -8203,7 +8203,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>375</v>
+        <v>308</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8226,16 +8226,20 @@
         <v>44</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>113</v>
+        <v>309</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>44</v>
       </c>
@@ -8283,7 +8287,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>115</v>
+        <v>308</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8295,19 +8299,19 @@
         <v>44</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>116</v>
+        <v>313</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>44</v>
+        <v>314</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>44</v>
@@ -8315,11 +8319,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>376</v>
+        <v>315</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8338,18 +8342,20 @@
         <v>44</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>96</v>
+        <v>316</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>155</v>
+        <v>317</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>156</v>
+        <v>318</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>44</v>
       </c>
@@ -8397,7 +8403,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>119</v>
+        <v>315</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8409,19 +8415,19 @@
         <v>44</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>116</v>
+        <v>321</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>44</v>
+        <v>322</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>44</v>
@@ -8429,11 +8435,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>377</v>
+        <v>323</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>326</v>
+        <v>44</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8446,25 +8452,25 @@
         <v>44</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>96</v>
+        <v>324</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>44</v>
@@ -8513,7 +8519,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8525,13 +8531,13 @@
         <v>44</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>102</v>
+        <v>329</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>94</v>
+        <v>330</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>44</v>
@@ -8545,7 +8551,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>378</v>
+        <v>331</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8553,7 +8559,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>51</v>
@@ -8568,20 +8574,16 @@
         <v>44</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>168</v>
+        <v>53</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>379</v>
+        <v>109</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>44</v>
       </c>
@@ -8605,13 +8607,13 @@
         <v>44</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>44</v>
@@ -8629,10 +8631,10 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>378</v>
+        <v>111</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>51</v>
@@ -8641,19 +8643,19 @@
         <v>44</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>383</v>
+        <v>112</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>384</v>
+        <v>44</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>385</v>
+        <v>44</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>44</v>
@@ -8661,18 +8663,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>386</v>
+        <v>332</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>44</v>
@@ -8684,20 +8686,18 @@
         <v>44</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>212</v>
+        <v>96</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>387</v>
+        <v>115</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>388</v>
+        <v>116</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>44</v>
       </c>
@@ -8745,31 +8745,31 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>386</v>
+        <v>119</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>391</v>
+        <v>112</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>392</v>
+        <v>44</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>393</v>
+        <v>44</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>44</v>
@@ -8777,11 +8777,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>394</v>
+        <v>333</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>395</v>
+        <v>334</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8794,24 +8794,26 @@
         <v>44</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>396</v>
+        <v>96</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>397</v>
+        <v>335</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>398</v>
+        <v>336</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>44</v>
       </c>
@@ -8859,7 +8861,7 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -8871,19 +8873,19 @@
         <v>44</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>400</v>
+        <v>94</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>401</v>
+        <v>44</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>44</v>
@@ -8891,7 +8893,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>402</v>
+        <v>338</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8902,7 +8904,7 @@
         <v>42</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>44</v>
@@ -8911,22 +8913,20 @@
         <v>44</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>403</v>
+        <v>129</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>404</v>
+        <v>339</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>407</v>
+        <v>341</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>44</v>
@@ -8951,13 +8951,11 @@
         <v>44</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="X65" s="2"/>
       <c r="Y65" t="s" s="2">
-        <v>44</v>
+        <v>342</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>44</v>
@@ -8975,13 +8973,13 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>402</v>
+        <v>338</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>44</v>
@@ -8990,16 +8988,16 @@
         <v>63</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>362</v>
+        <v>120</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>408</v>
+        <v>112</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>44</v>
+        <v>343</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>44</v>
@@ -9007,7 +9005,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>409</v>
+        <v>344</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9018,31 +9016,29 @@
         <v>42</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>316</v>
+        <v>229</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>410</v>
+        <v>345</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>413</v>
+        <v>347</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>44</v>
@@ -9091,13 +9087,13 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>409</v>
+        <v>344</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>44</v>
@@ -9106,16 +9102,16 @@
         <v>63</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>414</v>
+        <v>234</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>44</v>
+        <v>348</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>44</v>
@@ -9123,7 +9119,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>415</v>
+        <v>349</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9134,7 +9130,7 @@
         <v>42</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>44</v>
@@ -9146,16 +9142,20 @@
         <v>44</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>53</v>
+        <v>238</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>113</v>
+        <v>350</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>44</v>
       </c>
@@ -9203,31 +9203,31 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>115</v>
+        <v>349</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>116</v>
+        <v>243</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>44</v>
+        <v>353</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>44</v>
@@ -9235,18 +9235,18 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>416</v>
+        <v>354</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>44</v>
@@ -9258,18 +9258,18 @@
         <v>44</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>155</v>
+        <v>355</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>44</v>
       </c>
@@ -9317,31 +9317,31 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>119</v>
+        <v>354</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>116</v>
+        <v>358</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>44</v>
+        <v>359</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>44</v>
@@ -9349,42 +9349,40 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>417</v>
+        <v>360</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>326</v>
+        <v>44</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>327</v>
+        <v>247</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>139</v>
+        <v>362</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>44</v>
@@ -9409,13 +9407,13 @@
         <v>44</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>44</v>
+        <v>251</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>44</v>
+        <v>252</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>44</v>
@@ -9433,31 +9431,31 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>94</v>
+        <v>253</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>44</v>
+        <v>363</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>44</v>
@@ -9465,7 +9463,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>418</v>
+        <v>364</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9473,7 +9471,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>51</v>
@@ -9485,21 +9483,21 @@
         <v>44</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>419</v>
+        <v>212</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>420</v>
+        <v>365</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>44</v>
       </c>
@@ -9547,31 +9545,31 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>418</v>
+        <v>364</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>44</v>
+        <v>368</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>148</v>
+        <v>369</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>423</v>
+        <v>370</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>44</v>
@@ -9579,7 +9577,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>424</v>
+        <v>371</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9587,7 +9585,7 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>51</v>
@@ -9599,16 +9597,16 @@
         <v>44</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>425</v>
+        <v>372</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>426</v>
+        <v>373</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9635,13 +9633,13 @@
         <v>44</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>426</v>
+        <v>44</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>427</v>
+        <v>44</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>44</v>
@@ -9659,10 +9657,10 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>424</v>
+        <v>371</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>51</v>
@@ -9674,23 +9672,1627 @@
         <v>63</v>
       </c>
       <c r="AJ71" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="AK71" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN71" t="s" s="2">
+      <c r="M84" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN85" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN71">
+  <autoFilter ref="A1:AN85">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9700,7 +11302,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI70">
+  <conditionalFormatting sqref="A2:AI84">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-patient.xlsx
+++ b/StructureDefinition-be-patient.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3056" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3055" uniqueCount="435">
   <si>
     <t>Path</t>
   </si>
@@ -518,9 +518,6 @@
   <si>
     <t xml:space="preserve">value:system}
 </t>
-  </si>
-  <si>
-    <t>Slice based on the identifier.code pattern</t>
   </si>
   <si>
     <t>id</t>
@@ -5195,9 +5192,7 @@
       <c r="AA32" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AB32" t="s" s="2">
-        <v>159</v>
-      </c>
+      <c r="AB32" s="2"/>
       <c r="AC32" t="s" s="2">
         <v>44</v>
       </c>
@@ -5220,16 +5215,16 @@
         <v>63</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>44</v>
@@ -5240,7 +5235,7 @@
         <v>153</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>44</v>
@@ -5336,16 +5331,16 @@
         <v>63</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>44</v>
@@ -5353,7 +5348,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5465,7 +5460,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5579,7 +5574,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5605,16 +5600,16 @@
         <v>71</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>44</v>
@@ -5639,31 +5634,31 @@
         <v>44</v>
       </c>
       <c r="W36" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="X36" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="X36" t="s" s="2">
+      <c r="Y36" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Y36" t="s" s="2">
+      <c r="Z36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE36" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5678,7 +5673,7 @@
         <v>63</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>44</v>
@@ -5695,7 +5690,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5721,16 +5716,16 @@
         <v>129</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>44</v>
@@ -5755,31 +5750,31 @@
         <v>44</v>
       </c>
       <c r="W37" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="X37" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="X37" t="s" s="2">
+      <c r="Y37" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Y37" t="s" s="2">
+      <c r="Z37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE37" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5794,7 +5789,7 @@
         <v>63</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>44</v>
@@ -5803,7 +5798,7 @@
         <v>44</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>44</v>
@@ -5811,7 +5806,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5837,16 +5832,16 @@
         <v>65</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>44</v>
@@ -5856,46 +5851,46 @@
         <v>44</v>
       </c>
       <c r="R38" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="S38" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="S38" t="s" s="2">
+      <c r="T38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE38" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5910,16 +5905,16 @@
         <v>63</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>44</v>
@@ -5927,7 +5922,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5953,13 +5948,13 @@
         <v>53</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5973,43 +5968,43 @@
         <v>44</v>
       </c>
       <c r="S39" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE39" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -6024,16 +6019,16 @@
         <v>63</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>44</v>
@@ -6041,7 +6036,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6067,10 +6062,10 @@
         <v>134</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6121,7 +6116,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6136,16 +6131,16 @@
         <v>63</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>44</v>
@@ -6153,7 +6148,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6176,16 +6171,16 @@
         <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6235,7 +6230,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6250,16 +6245,16 @@
         <v>63</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>44</v>
@@ -6267,7 +6262,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6290,26 +6285,26 @@
         <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P42" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="O42" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P42" t="s" s="2">
-        <v>225</v>
-      </c>
       <c r="Q42" t="s" s="2">
         <v>44</v>
       </c>
@@ -6353,7 +6348,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6368,13 +6363,13 @@
         <v>63</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>112</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>44</v>
@@ -6385,7 +6380,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6408,19 +6403,19 @@
         <v>52</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>44</v>
@@ -6469,7 +6464,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6484,16 +6479,16 @@
         <v>63</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AK43" t="s" s="2">
+      <c r="AL43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>44</v>
@@ -6501,7 +6496,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6524,19 +6519,19 @@
         <v>52</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>44</v>
@@ -6585,7 +6580,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6600,16 +6595,16 @@
         <v>63</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>44</v>
@@ -6617,7 +6612,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6643,16 +6638,16 @@
         <v>71</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>44</v>
@@ -6677,14 +6672,14 @@
         <v>44</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="Y45" t="s" s="2">
-        <v>252</v>
-      </c>
       <c r="Z45" t="s" s="2">
         <v>44</v>
       </c>
@@ -6701,7 +6696,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6716,16 +6711,16 @@
         <v>63</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AK45" t="s" s="2">
+      <c r="AL45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>44</v>
@@ -6733,7 +6728,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6756,19 +6751,19 @@
         <v>52</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>44</v>
@@ -6817,7 +6812,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6832,24 +6827,24 @@
         <v>63</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AK46" t="s" s="2">
+      <c r="AL46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AL46" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>265</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6875,10 +6870,10 @@
         <v>53</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6961,7 +6956,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7071,10 +7066,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="B49" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>44</v>
@@ -7096,13 +7091,13 @@
         <v>44</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7185,7 +7180,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7297,7 +7292,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7409,7 +7404,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7449,7 +7444,7 @@
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>44</v>
@@ -7523,7 +7518,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7546,7 +7541,7 @@
         <v>44</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>130</v>
@@ -7633,10 +7628,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>44</v>
@@ -7658,7 +7653,7 @@
         <v>44</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>130</v>
@@ -7747,7 +7742,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7770,13 +7765,13 @@
         <v>44</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7827,7 +7822,7 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -7859,7 +7854,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7882,19 +7877,19 @@
         <v>52</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>44</v>
@@ -7943,7 +7938,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -7958,7 +7953,7 @@
         <v>63</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>112</v>
@@ -7967,7 +7962,7 @@
         <v>44</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>44</v>
@@ -7975,7 +7970,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7998,19 +7993,19 @@
         <v>44</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>44</v>
@@ -8059,7 +8054,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8074,16 +8069,16 @@
         <v>63</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>44</v>
@@ -8091,7 +8086,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8117,14 +8112,14 @@
         <v>129</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>44</v>
@@ -8149,11 +8144,11 @@
         <v>44</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X58" s="2"/>
       <c r="Y58" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>44</v>
@@ -8171,7 +8166,7 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8186,16 +8181,16 @@
         <v>63</v>
       </c>
       <c r="AJ58" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AK58" t="s" s="2">
+      <c r="AL58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>44</v>
@@ -8203,7 +8198,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8226,19 +8221,19 @@
         <v>44</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>44</v>
@@ -8287,7 +8282,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8302,7 +8297,7 @@
         <v>63</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>112</v>
@@ -8311,7 +8306,7 @@
         <v>44</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>44</v>
@@ -8319,7 +8314,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8342,19 +8337,19 @@
         <v>44</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>44</v>
@@ -8403,7 +8398,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8418,7 +8413,7 @@
         <v>63</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>112</v>
@@ -8427,7 +8422,7 @@
         <v>44</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>44</v>
@@ -8435,7 +8430,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8458,19 +8453,19 @@
         <v>44</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>44</v>
@@ -8519,7 +8514,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8531,10 +8526,10 @@
         <v>44</v>
       </c>
       <c r="AI61" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>112</v>
@@ -8551,7 +8546,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8663,7 +8658,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8777,11 +8772,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8803,10 +8798,10 @@
         <v>96</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>117</v>
@@ -8861,7 +8856,7 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -8893,7 +8888,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8919,14 +8914,14 @@
         <v>129</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>44</v>
@@ -8951,11 +8946,11 @@
         <v>44</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X65" s="2"/>
       <c r="Y65" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>44</v>
@@ -8973,7 +8968,7 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -8997,7 +8992,7 @@
         <v>44</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>44</v>
@@ -9005,7 +9000,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9028,17 +9023,17 @@
         <v>44</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>44</v>
@@ -9087,7 +9082,7 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9102,7 +9097,7 @@
         <v>63</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>112</v>
@@ -9111,7 +9106,7 @@
         <v>44</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>44</v>
@@ -9119,7 +9114,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9142,19 +9137,19 @@
         <v>44</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="M67" t="s" s="2">
-        <v>352</v>
-      </c>
       <c r="N67" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>44</v>
@@ -9203,7 +9198,7 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9218,7 +9213,7 @@
         <v>63</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>112</v>
@@ -9227,7 +9222,7 @@
         <v>44</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>44</v>
@@ -9235,7 +9230,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9261,14 +9256,14 @@
         <v>144</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>44</v>
@@ -9317,7 +9312,7 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9332,7 +9327,7 @@
         <v>63</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>112</v>
@@ -9341,7 +9336,7 @@
         <v>44</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>44</v>
@@ -9349,7 +9344,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9375,14 +9370,14 @@
         <v>71</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>44</v>
@@ -9407,14 +9402,14 @@
         <v>44</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X69" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="Y69" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="Y69" t="s" s="2">
-        <v>252</v>
-      </c>
       <c r="Z69" t="s" s="2">
         <v>44</v>
       </c>
@@ -9431,7 +9426,7 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9446,7 +9441,7 @@
         <v>63</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>112</v>
@@ -9455,7 +9450,7 @@
         <v>44</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>44</v>
@@ -9463,7 +9458,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9486,17 +9481,17 @@
         <v>44</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>44</v>
@@ -9545,7 +9540,7 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -9554,13 +9549,13 @@
         <v>51</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>112</v>
@@ -9569,7 +9564,7 @@
         <v>44</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>44</v>
@@ -9577,7 +9572,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9603,10 +9598,10 @@
         <v>134</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9657,7 +9652,7 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -9672,7 +9667,7 @@
         <v>63</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>112</v>
@@ -9689,7 +9684,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9712,19 +9707,19 @@
         <v>44</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>44</v>
@@ -9773,7 +9768,7 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -9788,10 +9783,10 @@
         <v>63</v>
       </c>
       <c r="AJ72" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AK72" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>44</v>
@@ -9805,7 +9800,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9917,7 +9912,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10031,11 +10026,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10057,10 +10052,10 @@
         <v>96</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="M75" t="s" s="2">
         <v>117</v>
@@ -10115,7 +10110,7 @@
         <v>44</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
@@ -10147,7 +10142,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10173,16 +10168,16 @@
         <v>129</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>44</v>
@@ -10231,7 +10226,7 @@
         <v>44</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>51</v>
@@ -10246,16 +10241,16 @@
         <v>63</v>
       </c>
       <c r="AJ76" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AK76" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="AK76" t="s" s="2">
+      <c r="AL76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>44</v>
@@ -10263,7 +10258,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10286,19 +10281,19 @@
         <v>44</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>44</v>
@@ -10347,7 +10342,7 @@
         <v>44</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
@@ -10362,16 +10357,16 @@
         <v>63</v>
       </c>
       <c r="AJ77" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AK77" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AK77" t="s" s="2">
+      <c r="AL77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM77" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>44</v>
@@ -10379,11 +10374,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10402,16 +10397,16 @@
         <v>44</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="K78" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="K78" t="s" s="2">
+      <c r="L78" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10461,7 +10456,7 @@
         <v>44</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
@@ -10476,7 +10471,7 @@
         <v>63</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>112</v>
@@ -10485,7 +10480,7 @@
         <v>44</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>44</v>
@@ -10493,7 +10488,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10516,19 +10511,19 @@
         <v>52</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="K79" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="K79" t="s" s="2">
+      <c r="L79" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>44</v>
@@ -10577,7 +10572,7 @@
         <v>44</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
@@ -10592,10 +10587,10 @@
         <v>63</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>44</v>
@@ -10609,7 +10604,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10632,19 +10627,19 @@
         <v>52</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>44</v>
@@ -10693,7 +10688,7 @@
         <v>44</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
@@ -10708,7 +10703,7 @@
         <v>63</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>112</v>
@@ -10725,7 +10720,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10837,7 +10832,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10951,11 +10946,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10977,10 +10972,10 @@
         <v>96</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="M83" t="s" s="2">
         <v>117</v>
@@ -11035,7 +11030,7 @@
         <v>44</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
@@ -11067,7 +11062,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11090,16 +11085,16 @@
         <v>52</v>
       </c>
       <c r="J84" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="K84" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="K84" t="s" s="2">
+      <c r="L84" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11149,7 +11144,7 @@
         <v>44</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>51</v>
@@ -11164,7 +11159,7 @@
         <v>63</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>112</v>
@@ -11173,7 +11168,7 @@
         <v>44</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>44</v>
@@ -11181,7 +11176,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11207,10 +11202,10 @@
         <v>71</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11237,14 +11232,14 @@
         <v>44</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X85" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="Y85" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="Y85" t="s" s="2">
-        <v>434</v>
-      </c>
       <c r="Z85" t="s" s="2">
         <v>44</v>
       </c>
@@ -11261,7 +11256,7 @@
         <v>44</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>51</v>
@@ -11276,7 +11271,7 @@
         <v>63</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>112</v>

--- a/StructureDefinition-be-patient.xlsx
+++ b/StructureDefinition-be-patient.xlsx
@@ -5848,10 +5848,10 @@
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>192</v>
